--- a/doc/04_DB定義書_B4_第1版.xlsx
+++ b/doc/04_DB定義書_B4_第1版.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1162748D-534B-4A6F-982E-4BFFA0BFE6E4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08F08F67-01AD-467D-BCC9-DD5134D8EB1B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2920" yWindow="1520" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="61">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -280,10 +280,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>dream_weight</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>体重</t>
     <rPh sb="0" eb="2">
       <t>タイジュウ</t>
@@ -291,10 +287,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>real_weight</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>開始日</t>
     <rPh sb="0" eb="3">
       <t>カイシビ</t>
@@ -302,10 +294,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>start</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>期限日</t>
     <rPh sb="0" eb="3">
       <t>キゲンビ</t>
@@ -313,10 +301,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>dead_line</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>目的</t>
     <rPh sb="0" eb="2">
       <t>モクテキ</t>
@@ -351,6 +335,33 @@
   </si>
   <si>
     <t>menu</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>dreamweights</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>realweights</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>timestamp</t>
+  </si>
+  <si>
+    <t>created at</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>updated at</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>starts</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>deadlines</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -802,8 +813,8 @@
   </sheetPr>
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:C5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -1688,8 +1699,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83245011-FD2F-4CAF-865D-1A3B71B45B8D}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -1798,7 +1809,7 @@
         <v>33</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>34</v>
@@ -1819,7 +1830,7 @@
       <c r="J10" s="3"/>
       <c r="L10" t="str">
         <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
-        <v>user_number int (20),</v>
+        <v>id int (20),</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
@@ -1830,7 +1841,7 @@
         <v>43</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>34</v>
@@ -1847,7 +1858,7 @@
       <c r="J11" s="3"/>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v>dream_weight int (20),</v>
+        <v>dreamweights int (20),</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
@@ -1855,10 +1866,10 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>34</v>
@@ -1875,7 +1886,7 @@
       <c r="J12" s="3"/>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v>real_weight int (20),</v>
+        <v>realweights int (20),</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
@@ -1883,10 +1894,10 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>34</v>
@@ -1899,7 +1910,7 @@
       <c r="J13" s="3"/>
       <c r="L13" t="str">
         <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v>start int ,</v>
+        <v>starts int ,</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
@@ -1907,10 +1918,10 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>34</v>
@@ -1923,7 +1934,7 @@
       <c r="J14" s="3"/>
       <c r="L14" t="str">
         <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
-        <v>dead_line int ,</v>
+        <v>deadlines int ,</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
@@ -1931,13 +1942,13 @@
         <v>6</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E15" s="3">
         <v>50</v>
@@ -1957,13 +1968,13 @@
         <v>7</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1973,7 +1984,7 @@
       <c r="J16" s="3"/>
       <c r="L16" t="str">
         <f t="shared" si="0"/>
-        <v>time int ,</v>
+        <v>time timestamp ,</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
@@ -1981,13 +1992,13 @@
         <v>8</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
@@ -2185,12 +2196,14 @@
         <v>19</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D28" s="3"/>
+        <v>57</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>56</v>
+      </c>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
@@ -2199,7 +2212,7 @@
       <c r="J28" s="3"/>
       <c r="L28" t="str">
         <f t="shared" si="0"/>
-        <v>timestamp  ,</v>
+        <v>created at timestamp ,</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
@@ -2207,12 +2220,14 @@
         <v>20</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>39</v>
+        <v>6</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D29" s="3"/>
+        <v>58</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>56</v>
+      </c>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
@@ -2221,7 +2236,7 @@
       <c r="J29" s="3"/>
       <c r="L29" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">timestamp2  </v>
+        <v xml:space="preserve">updated at timestamp </v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
@@ -2232,6 +2247,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
